--- a/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_OpenNewAccountVisitor.xlsx
+++ b/QA_Automation/Invessence/TestCases/TCM/TestData_Invessence_TCM_OpenNewAccountVisitor.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="117">
   <si>
     <t>TCID</t>
   </si>
@@ -316,9 +316,6 @@
     <t>tcm-logo.jpe</t>
   </si>
   <si>
-    <t>04/04/2017</t>
-  </si>
-  <si>
     <t>TCMRep100testfname</t>
   </si>
   <si>
@@ -344,6 +341,36 @@
   </si>
   <si>
     <t>http://uattcm.invessence.com:8080/getstarted.xhtml?rep=200</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>http://pretcm.invessence.com:8080/getstarted.xhtml?rep=200</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>06/06/2017</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>reviewstatus</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>http://pretcm.invessence.com:8080/getstarted.xhtml?rep=100</t>
   </si>
 </sst>
 </file>
@@ -713,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD9"/>
+  <dimension ref="A1:BE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AW12" sqref="AW12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,10 +767,10 @@
     <col min="24" max="24" width="23.42578125" style="3" customWidth="1"/>
     <col min="25" max="38" width="13.85546875" style="3" customWidth="1"/>
     <col min="39" max="39" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="40" max="54" width="13.85546875" style="3" customWidth="1"/>
+    <col min="40" max="55" width="13.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -906,25 +933,28 @@
       <c r="BB1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BD1" t="s">
         <v>8</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BE1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -954,10 +984,10 @@
         <v>26</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>60</v>
@@ -1059,7 +1089,7 @@
         <v>85</v>
       </c>
       <c r="AW2" s="4" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="AX2" s="4"/>
       <c r="AY2" s="4"/>
@@ -1072,23 +1102,26 @@
       <c r="BB2" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BC2" t="s">
-        <v>9</v>
-      </c>
-      <c r="BD2" s="2"/>
+      <c r="BC2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE2" s="2"/>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1118,10 +1151,10 @@
         <v>26</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>60</v>
@@ -1133,7 +1166,7 @@
         <v>62</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T3" s="4" t="s">
         <v>63</v>
@@ -1223,7 +1256,7 @@
         <v>85</v>
       </c>
       <c r="AW3" s="4" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
@@ -1236,112 +1269,349 @@
       <c r="BB3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="BC3" t="s">
+      <c r="BC3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD3" t="s">
         <v>9</v>
       </c>
-      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="H4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4"/>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>2500</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW4" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="AX4" s="4"/>
       <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BD4" s="2"/>
+      <c r="AZ4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE4" s="2"/>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
-      <c r="H5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AA5" s="4"/>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="4"/>
-      <c r="AK5" s="4"/>
-      <c r="AL5" s="4"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="4"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>2500</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK5" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AP5" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV5" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AW5" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
-      <c r="BA5" s="4"/>
-      <c r="BB5" s="4"/>
-      <c r="BD5" s="2"/>
+      <c r="AZ5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="BB5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE5" s="2"/>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="H6" s="4"/>
       <c r="J6" s="4"/>
@@ -1389,9 +1659,10 @@
       <c r="AZ6" s="4"/>
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
-      <c r="BD6" s="2"/>
+      <c r="BC6" s="4"/>
+      <c r="BE6" s="2"/>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="H7" s="4"/>
       <c r="J7" s="4"/>
@@ -1439,9 +1710,10 @@
       <c r="AZ7" s="4"/>
       <c r="BA7" s="4"/>
       <c r="BB7" s="4"/>
-      <c r="BD7" s="2"/>
+      <c r="BC7" s="4"/>
+      <c r="BE7" s="2"/>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="H8" s="4"/>
       <c r="J8" s="4"/>
@@ -1489,9 +1761,10 @@
       <c r="AZ8" s="4"/>
       <c r="BA8" s="4"/>
       <c r="BB8" s="4"/>
-      <c r="BD8" s="2"/>
+      <c r="BC8" s="4"/>
+      <c r="BE8" s="2"/>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="H9" s="4"/>
       <c r="J9" s="4"/>
@@ -1539,7 +1812,8 @@
       <c r="AZ9" s="4"/>
       <c r="BA9" s="4"/>
       <c r="BB9" s="4"/>
-      <c r="BD9" s="2"/>
+      <c r="BC9" s="4"/>
+      <c r="BE9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1547,9 +1821,13 @@
     <hyperlink ref="B2" r:id="rId2"/>
     <hyperlink ref="S3" r:id="rId3" display="d@gmail.com"/>
     <hyperlink ref="B3" r:id="rId4"/>
+    <hyperlink ref="S4" r:id="rId5" display="d@gmail.com"/>
+    <hyperlink ref="S5" r:id="rId6" display="d@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="B4" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
